--- a/ABS Valve Test BOM.xlsx
+++ b/ABS Valve Test BOM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>120VAC to 24VDC Transformer</t>
   </si>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>QTY</t>
-  </si>
-  <si>
-    <t>Found in lab</t>
   </si>
   <si>
     <t>NA</t>
@@ -198,7 +195,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -219,6 +216,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -527,7 +527,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
+      <selection pane="bottomLeft" activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,10 +556,10 @@
         <v>5</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -570,26 +570,30 @@
         <v>0</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>7</v>
+        <v>27</v>
+      </c>
+      <c r="D8" s="3">
+        <v>70218318</v>
       </c>
       <c r="E8" s="3">
         <v>1</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="F8" s="3">
+        <v>13.82</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>2</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" s="5">
         <v>70344660</v>
@@ -601,7 +605,7 @@
         <v>38.520000000000003</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -609,13 +613,13 @@
         <v>3</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="D10" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E10" s="3">
         <v>1</v>
@@ -628,7 +632,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E11" s="4">
         <v>2</v>
@@ -639,13 +643,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="E12" s="3">
         <v>2</v>
@@ -658,7 +662,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E13" s="4">
         <v>12</v>
@@ -669,7 +673,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -684,7 +688,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E15" s="4">
         <v>1</v>
@@ -695,7 +699,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -710,10 +714,10 @@
         <v>10</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -721,12 +725,12 @@
         <v>11</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -736,7 +740,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19" s="4">
         <v>1</v>
@@ -747,7 +751,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -762,7 +766,7 @@
         <v>14</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E21" s="4">
         <v>1</v>
@@ -773,7 +777,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -788,10 +792,10 @@
         <v>16</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="D23" s="4">
         <v>70076062</v>
@@ -803,7 +807,7 @@
         <v>44.88</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K23" s="7"/>
     </row>
@@ -811,9 +815,10 @@
   <hyperlinks>
     <hyperlink ref="G9" r:id="rId1" location="tab=specs"/>
     <hyperlink ref="G23" r:id="rId2" location="tab=specs"/>
+    <hyperlink ref="G8" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 

--- a/ABS Valve Test BOM.xlsx
+++ b/ABS Valve Test BOM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="76">
   <si>
     <t>120VAC to 24VDC Transformer</t>
   </si>
@@ -48,9 +48,6 @@
     <t>From LAB</t>
   </si>
   <si>
-    <t>120 VAC Fuse</t>
-  </si>
-  <si>
     <t>Valve Control Circuit</t>
   </si>
   <si>
@@ -69,15 +66,6 @@
     <t>Counter</t>
   </si>
   <si>
-    <t>24 AC Fuse</t>
-  </si>
-  <si>
-    <t>Terminal Blocks</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>DIN Rail</t>
   </si>
   <si>
@@ -103,6 +91,159 @@
   </si>
   <si>
     <t>Price</t>
+  </si>
+  <si>
+    <t>Salvaged</t>
+  </si>
+  <si>
+    <t>Conformal Coating Remover</t>
+  </si>
+  <si>
+    <t>Digi-Key</t>
+  </si>
+  <si>
+    <t>CW3500-ND</t>
+  </si>
+  <si>
+    <t>Fuse Terminal</t>
+  </si>
+  <si>
+    <t>Automation4Less</t>
+  </si>
+  <si>
+    <t>CAFL4U</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>120 VAC Fuse (1.25x0.25) - 10A</t>
+  </si>
+  <si>
+    <t>Automation Direct</t>
+  </si>
+  <si>
+    <t>AGC10</t>
+  </si>
+  <si>
+    <t>Low Voltage DC Fuse (1.25x0.25) - 2A</t>
+  </si>
+  <si>
+    <t>AGC2</t>
+  </si>
+  <si>
+    <t>24 VAC Fuse (1.25x0.25) - 5A</t>
+  </si>
+  <si>
+    <t>ACG 2</t>
+  </si>
+  <si>
+    <t>DIN Rail Fuse Blocks</t>
+  </si>
+  <si>
+    <t>DN-F6MN</t>
+  </si>
+  <si>
+    <t>Jameco</t>
+  </si>
+  <si>
+    <t>GCX3131</t>
+  </si>
+  <si>
+    <t>Grounded Terminal Block</t>
+  </si>
+  <si>
+    <t>DN-G10-10</t>
+  </si>
+  <si>
+    <t>DN-R15S1</t>
+  </si>
+  <si>
+    <t>Terminal Blocks (DIN)</t>
+  </si>
+  <si>
+    <t>DN-M10-A</t>
+  </si>
+  <si>
+    <t>Terminal Block End Cover</t>
+  </si>
+  <si>
+    <t>DN-ECM10</t>
+  </si>
+  <si>
+    <t>Jumpers</t>
+  </si>
+  <si>
+    <t>DN-24J4Y</t>
+  </si>
+  <si>
+    <t>ECX2054-127L</t>
+  </si>
+  <si>
+    <t>GCX3102</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Barbed Connectors</t>
+  </si>
+  <si>
+    <t>Cornelius</t>
+  </si>
+  <si>
+    <t>Staineless Steel Tubing</t>
+  </si>
+  <si>
+    <t>Already Have</t>
+  </si>
+  <si>
+    <t>20Ft</t>
+  </si>
+  <si>
+    <t>NS</t>
+  </si>
+  <si>
+    <t>Swivel Castors</t>
+  </si>
+  <si>
+    <t>18A Contactor (For Pump Motor)</t>
+  </si>
+  <si>
+    <t>C3 Controls</t>
+  </si>
+  <si>
+    <t>300-S18N30D10</t>
+  </si>
+  <si>
+    <t>Overload Relay (For Pump Motor)</t>
+  </si>
+  <si>
+    <t>320-B2U23</t>
+  </si>
+  <si>
+    <t>Wire Duct</t>
+  </si>
+  <si>
+    <t>T1-1010B-1</t>
+  </si>
+  <si>
+    <t>240VAC to 120VAC Transformer</t>
+  </si>
+  <si>
+    <t>230 VAC Male Plug</t>
+  </si>
+  <si>
+    <t>30A Fuse Pack</t>
+  </si>
+  <si>
+    <t>MCL30</t>
+  </si>
+  <si>
+    <t>30A Fuse Mounts</t>
+  </si>
+  <si>
+    <t>BM6032PQ</t>
   </si>
 </sst>
 </file>
@@ -195,7 +336,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -219,6 +360,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -523,23 +667,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A7:K23"/>
+  <dimension ref="A7:K40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N12" sqref="N12"/>
+      <pane ySplit="7" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="4"/>
-    <col min="2" max="2" width="33.140625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="47.140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" style="4" customWidth="1"/>
     <col min="4" max="4" width="19.140625" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="4"/>
+    <col min="5" max="9" width="9.140625" style="4"/>
+    <col min="10" max="10" width="23.140625" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
@@ -556,44 +702,45 @@
         <v>5</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>1</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="3">
-        <v>70218318</v>
+        <v>6</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="E8" s="3">
         <v>1</v>
       </c>
-      <c r="F8" s="3">
-        <v>13.82</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>2</v>
-      </c>
+      <c r="F8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D9" s="5">
         <v>70344660</v>
@@ -604,14 +751,16 @@
       <c r="F9" s="4">
         <v>38.520000000000003</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>3</v>
-      </c>
+      <c r="G9" s="4">
+        <f>E9*F9</f>
+        <v>38.520000000000003</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
@@ -624,201 +773,711 @@
       <c r="E10" s="3">
         <v>1</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>4</v>
-      </c>
+      <c r="F10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+      <c r="F11" s="4">
+        <v>2.25</v>
+      </c>
+      <c r="G11" s="4">
+        <f>E11*F11</f>
+        <v>2.25</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>5</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="E12" s="3">
         <v>2</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+      <c r="F12" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="4">
+        <v>106551</v>
+      </c>
+      <c r="E13" s="4">
+        <v>4</v>
+      </c>
+      <c r="F13" s="4">
+        <v>2.95</v>
+      </c>
+      <c r="G13" s="4">
+        <f>E13*F13</f>
+        <v>11.8</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>7</v>
-      </c>
-      <c r="B14" s="3" t="s">
+      <c r="C14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3">
+        <v>9.25</v>
+      </c>
+      <c r="G14" s="3">
+        <v>9.25</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>8</v>
-      </c>
-      <c r="B15" s="4" t="s">
+      <c r="E15" s="4">
+        <v>1</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K15" s="4">
+        <f>SUM(G8:G550)</f>
+        <v>702.51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>9</v>
-      </c>
-      <c r="B16" s="3" t="s">
+      <c r="C16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3">
+        <v>26</v>
+      </c>
+      <c r="G16" s="3">
+        <v>26</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3">
-        <v>2</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>10</v>
-      </c>
-      <c r="B17" s="4" t="s">
+      <c r="E17" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>11</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
-      <c r="E18" s="3" t="s">
-        <v>19</v>
+      <c r="E18" s="3">
+        <v>1</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <v>12</v>
-      </c>
-      <c r="B19" s="4" t="s">
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="7">
+        <v>1</v>
+      </c>
+      <c r="F19" s="7">
+        <v>4.75</v>
+      </c>
+      <c r="G19" s="7">
+        <v>4.75</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>13</v>
-      </c>
-      <c r="B20" s="3" t="s">
+      <c r="C20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1</v>
+      </c>
+      <c r="F20" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="G20" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3">
-        <v>1</v>
-      </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <v>14</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>15</v>
-      </c>
+      <c r="C21" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="7">
+        <v>70076062</v>
+      </c>
+      <c r="E21" s="7">
+        <v>1</v>
+      </c>
+      <c r="F21" s="7">
+        <v>44.88</v>
+      </c>
+      <c r="G21" s="7">
+        <f>E21*F21</f>
+        <v>44.88</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="E22" s="3">
         <v>1</v>
       </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
-        <v>16</v>
-      </c>
-      <c r="B23" s="4" t="s">
+      <c r="F22" s="3">
+        <v>22.92</v>
+      </c>
+      <c r="G22" s="3">
+        <f t="shared" ref="G22:G23" si="0">E22*F22</f>
+        <v>22.92</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="7">
+        <v>4</v>
+      </c>
+      <c r="F23" s="7">
+        <v>2.4</v>
+      </c>
+      <c r="G23" s="7">
+        <f t="shared" si="0"/>
+        <v>9.6</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="3">
+        <v>3</v>
+      </c>
+      <c r="F24" s="3">
+        <v>2</v>
+      </c>
+      <c r="G24" s="3">
+        <f t="shared" ref="G24:G30" si="1">E24*F24</f>
+        <v>6</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" s="7">
+        <v>2</v>
+      </c>
+      <c r="F25" s="7">
+        <v>2</v>
+      </c>
+      <c r="G25" s="7">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1</v>
+      </c>
+      <c r="F26" s="3">
+        <v>20</v>
+      </c>
+      <c r="G26" s="3">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="4">
+        <v>1</v>
+      </c>
+      <c r="F27" s="4">
+        <v>24.5</v>
+      </c>
+      <c r="G27" s="4">
+        <f t="shared" si="1"/>
+        <v>24.5</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="3">
+        <v>1</v>
+      </c>
+      <c r="F28" s="3">
+        <v>58</v>
+      </c>
+      <c r="G28" s="3">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" s="4">
+        <v>1</v>
+      </c>
+      <c r="F29" s="4">
         <v>26</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" s="4">
-        <v>70076062</v>
-      </c>
-      <c r="E23" s="4">
-        <v>1</v>
-      </c>
-      <c r="F23" s="4">
-        <v>44.88</v>
-      </c>
-      <c r="G23" s="6" t="s">
+      <c r="G29" s="4">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" s="3">
+        <v>1</v>
+      </c>
+      <c r="F30" s="3">
+        <v>17</v>
+      </c>
+      <c r="G30" s="3">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="4">
+        <v>620051650</v>
+      </c>
+      <c r="E31" s="4">
+        <v>20</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G31" s="4">
+        <v>0</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="4">
+        <v>8020</v>
+      </c>
+      <c r="D33" s="4">
+        <v>2708</v>
+      </c>
+      <c r="E33" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E34" s="3">
+        <v>1</v>
+      </c>
+      <c r="F34" s="3">
+        <v>105</v>
+      </c>
+      <c r="G34" s="3">
+        <f>E34*F34</f>
+        <v>105</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E35" s="4">
+        <v>1</v>
+      </c>
+      <c r="F35" s="4">
+        <v>62</v>
+      </c>
+      <c r="G35" s="4">
+        <f>F35*E35</f>
+        <v>62</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" s="3">
+        <v>1</v>
+      </c>
+      <c r="F36" s="3">
+        <v>17</v>
+      </c>
+      <c r="G36" s="3">
+        <v>17</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K23" s="7"/>
+      <c r="D37" s="4">
+        <v>70239293</v>
+      </c>
+      <c r="E37" s="4">
+        <v>1</v>
+      </c>
+      <c r="F37" s="4">
+        <v>54.54</v>
+      </c>
+      <c r="G37" s="4">
+        <v>54.54</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3">
+        <v>2</v>
+      </c>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E39" s="4">
+        <v>1</v>
+      </c>
+      <c r="F39" s="4">
+        <v>66</v>
+      </c>
+      <c r="G39" s="4">
+        <v>66</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E40" s="3">
+        <v>1</v>
+      </c>
+      <c r="F40" s="3">
+        <v>64</v>
+      </c>
+      <c r="G40" s="3">
+        <v>64</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G9" r:id="rId1" location="tab=specs"/>
-    <hyperlink ref="G23" r:id="rId2" location="tab=specs"/>
-    <hyperlink ref="G8" r:id="rId3"/>
+    <hyperlink ref="H9" r:id="rId1" location="tab=specs"/>
+    <hyperlink ref="H21" r:id="rId2" location="tab=specs"/>
+    <hyperlink ref="H22" r:id="rId3"/>
+    <hyperlink ref="H23" r:id="rId4"/>
+    <hyperlink ref="H11" r:id="rId5"/>
+    <hyperlink ref="H24" r:id="rId6"/>
+    <hyperlink ref="H25" r:id="rId7"/>
+    <hyperlink ref="H26" r:id="rId8"/>
+    <hyperlink ref="H13" r:id="rId9"/>
+    <hyperlink ref="H14" r:id="rId10"/>
+    <hyperlink ref="H27" r:id="rId11"/>
+    <hyperlink ref="H16" r:id="rId12"/>
+    <hyperlink ref="H28" r:id="rId13"/>
+    <hyperlink ref="H29" r:id="rId14"/>
+    <hyperlink ref="H30" r:id="rId15"/>
+    <hyperlink ref="H20" r:id="rId16"/>
+    <hyperlink ref="H19" r:id="rId17"/>
+    <hyperlink ref="H34" r:id="rId18"/>
+    <hyperlink ref="H35" r:id="rId19"/>
+    <hyperlink ref="H36" r:id="rId20"/>
+    <hyperlink ref="H37" r:id="rId21" location="tab=specs"/>
+    <hyperlink ref="H39" r:id="rId22"/>
+    <hyperlink ref="H40" r:id="rId23"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId24"/>
 </worksheet>
 </file>
 

--- a/ABS Valve Test BOM.xlsx
+++ b/ABS Valve Test BOM.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="480" yWindow="30" windowWidth="27795" windowHeight="15135"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Electrical" sheetId="1" r:id="rId1"/>
+    <sheet name="Mechanical" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="127">
   <si>
     <t>120VAC to 24VDC Transformer</t>
   </si>
@@ -204,18 +204,12 @@
     <t>NS</t>
   </si>
   <si>
-    <t>Swivel Castors</t>
-  </si>
-  <si>
     <t>18A Contactor (For Pump Motor)</t>
   </si>
   <si>
     <t>C3 Controls</t>
   </si>
   <si>
-    <t>300-S18N30D10</t>
-  </si>
-  <si>
     <t>Overload Relay (For Pump Motor)</t>
   </si>
   <si>
@@ -244,6 +238,165 @@
   </si>
   <si>
     <t>BM6032PQ</t>
+  </si>
+  <si>
+    <t>NiC243008LP</t>
+  </si>
+  <si>
+    <t>N1P2430</t>
+  </si>
+  <si>
+    <t>Power On Button</t>
+  </si>
+  <si>
+    <t>W22PB-FY-10//-SERB</t>
+  </si>
+  <si>
+    <t>Power Off Button</t>
+  </si>
+  <si>
+    <t>W22PB-FR-10//-SERB</t>
+  </si>
+  <si>
+    <t>240 VAC Relay</t>
+  </si>
+  <si>
+    <t>GPRS-B2C25F-3</t>
+  </si>
+  <si>
+    <t>240 VAC Relay Socket</t>
+  </si>
+  <si>
+    <t>GPRA-SB11G1</t>
+  </si>
+  <si>
+    <t>Power On Lamp</t>
+  </si>
+  <si>
+    <t>W22UNR-240LB-WNLB</t>
+  </si>
+  <si>
+    <t>Pump On Lamp</t>
+  </si>
+  <si>
+    <t>W22UNR-240LG-WNLG</t>
+  </si>
+  <si>
+    <t>Pump On Button</t>
+  </si>
+  <si>
+    <t>Pump Off Button</t>
+  </si>
+  <si>
+    <t>W22PB-FG-10//-SERB</t>
+  </si>
+  <si>
+    <t>W22PB-FR-01//-SERB</t>
+  </si>
+  <si>
+    <t>McMaster-Carr</t>
+  </si>
+  <si>
+    <t>3/4" Brass Ball Valve</t>
+  </si>
+  <si>
+    <t>47865K24</t>
+  </si>
+  <si>
+    <t>3/4" Needle Valve</t>
+  </si>
+  <si>
+    <t>46425K15</t>
+  </si>
+  <si>
+    <t>3/4" Relief Valve</t>
+  </si>
+  <si>
+    <t>4612K18</t>
+  </si>
+  <si>
+    <t>Mechanical Total</t>
+  </si>
+  <si>
+    <t>Water Filter</t>
+  </si>
+  <si>
+    <t>4422K3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Replacement Filter </t>
+  </si>
+  <si>
+    <t>7191K11</t>
+  </si>
+  <si>
+    <t>Pressure Ga. 0-160PSI 1/8NPT Mounting</t>
+  </si>
+  <si>
+    <t>3846K411</t>
+  </si>
+  <si>
+    <t>70 Gallon Stock Tank</t>
+  </si>
+  <si>
+    <t>Granger</t>
+  </si>
+  <si>
+    <t>1MDB8</t>
+  </si>
+  <si>
+    <t>3/4" Through-Wall Fitting</t>
+  </si>
+  <si>
+    <t>36895K162</t>
+  </si>
+  <si>
+    <t>80/20 15S Stock 97" Lengths</t>
+  </si>
+  <si>
+    <t>T Slot</t>
+  </si>
+  <si>
+    <t>Lengh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Need 11 </t>
+  </si>
+  <si>
+    <t>2RCR4</t>
+  </si>
+  <si>
+    <t>80/20 90 Degree Joiing Plates</t>
+  </si>
+  <si>
+    <t>2RCX4</t>
+  </si>
+  <si>
+    <t>80/20 T Joining Plate</t>
+  </si>
+  <si>
+    <t>2RCX8</t>
+  </si>
+  <si>
+    <t>T Nuts + Bolts</t>
+  </si>
+  <si>
+    <t>2RCT7</t>
+  </si>
+  <si>
+    <t>Swivel Stem Castor (250lb)</t>
+  </si>
+  <si>
+    <t>5JRN0</t>
+  </si>
+  <si>
+    <t>Ordered</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>300-S18N30F10</t>
   </si>
 </sst>
 </file>
@@ -282,7 +435,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -304,6 +457,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -336,7 +495,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -363,6 +522,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -667,11 +841,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A7:K40"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A7:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L29" sqref="L29"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -679,13 +855,13 @@
     <col min="1" max="1" width="9.140625" style="4"/>
     <col min="2" max="2" width="47.140625" style="4" customWidth="1"/>
     <col min="3" max="3" width="20.140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" style="4" customWidth="1"/>
-    <col min="5" max="9" width="9.140625" style="4"/>
-    <col min="10" max="10" width="23.140625" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="4"/>
+    <col min="4" max="4" width="23.140625" style="4" customWidth="1"/>
+    <col min="5" max="10" width="9.140625" style="4"/>
+    <col min="11" max="11" width="23.140625" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
@@ -710,8 +886,11 @@
       <c r="H7" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I7" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
         <v>0</v>
@@ -734,8 +913,9 @@
       <c r="H8" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I8" s="8"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
@@ -758,8 +938,9 @@
       <c r="H9" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
         <v>8</v>
@@ -782,8 +963,9 @@
       <c r="H10" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>33</v>
       </c>
@@ -806,8 +988,9 @@
       <c r="H11" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
         <v>10</v>
@@ -830,8 +1013,9 @@
       <c r="H12" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
         <v>13</v>
       </c>
@@ -854,8 +1038,9 @@
       <c r="H13" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
         <v>14</v>
@@ -878,23 +1063,33 @@
       <c r="H14" s="8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I14" s="8"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E15" s="4">
         <v>1</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="F15" s="4">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K15" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="K15" s="4">
+      <c r="L15" s="10">
         <f>SUM(G8:G550)</f>
-        <v>702.51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1095.9099999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
         <v>16</v>
@@ -917,30 +1112,58 @@
       <c r="H16" s="8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I16" s="8"/>
+    </row>
+    <row r="17" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="s">
         <v>17</v>
       </c>
+      <c r="C17" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>74</v>
+      </c>
       <c r="E17" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F17" s="7">
+        <v>198</v>
+      </c>
+      <c r="G17" s="7">
+        <v>198</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="9"/>
+    </row>
+    <row r="18" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+      <c r="C18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="E18" s="3">
         <v>1</v>
       </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F18" s="3">
+        <v>56</v>
+      </c>
+      <c r="G18" s="3">
+        <v>56</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" s="8"/>
+    </row>
+    <row r="19" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
         <v>20</v>
       </c>
@@ -962,8 +1185,9 @@
       <c r="H19" s="9" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I19" s="9"/>
+    </row>
+    <row r="20" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
         <v>21</v>
@@ -986,8 +1210,9 @@
       <c r="H20" s="8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I20" s="8"/>
+    </row>
+    <row r="21" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
         <v>22</v>
       </c>
@@ -1010,8 +1235,9 @@
       <c r="H21" s="9" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I21" s="9"/>
+    </row>
+    <row r="22" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
         <v>26</v>
@@ -1035,8 +1261,9 @@
       <c r="H22" s="8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I22" s="8"/>
+    </row>
+    <row r="23" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="s">
         <v>29</v>
       </c>
@@ -1059,8 +1286,9 @@
       <c r="H23" s="9" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I23" s="9"/>
+    </row>
+    <row r="24" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3" t="s">
         <v>36</v>
@@ -1084,8 +1312,9 @@
       <c r="H24" s="8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I24" s="8"/>
+    </row>
+    <row r="25" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="s">
         <v>38</v>
       </c>
@@ -1108,8 +1337,9 @@
       <c r="H25" s="9" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25" s="9"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
         <v>40</v>
@@ -1133,8 +1363,9 @@
       <c r="H26" s="8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I26" s="8"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
         <v>44</v>
       </c>
@@ -1157,8 +1388,9 @@
       <c r="H27" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I27" s="6"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
         <v>47</v>
@@ -1182,8 +1414,9 @@
       <c r="H28" s="8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I28" s="8"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
         <v>49</v>
       </c>
@@ -1206,8 +1439,9 @@
       <c r="H29" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I29" s="6"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3" t="s">
         <v>51</v>
@@ -1231,8 +1465,9 @@
       <c r="H30" s="8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I30" s="8"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="s">
         <v>56</v>
       </c>
@@ -1255,7 +1490,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
         <v>58</v>
@@ -1278,31 +1513,18 @@
       <c r="H32" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C33" s="4">
-        <v>8020</v>
-      </c>
-      <c r="D33" s="4">
-        <v>2708</v>
-      </c>
-      <c r="E33" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I32" s="3"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="D34" s="3" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="E34" s="3">
         <v>1</v>
@@ -1317,16 +1539,19 @@
       <c r="H34" s="8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I34" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B35" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E35" s="4">
         <v>1</v>
@@ -1341,17 +1566,20 @@
       <c r="H35" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I35" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E36" s="3">
         <v>1</v>
@@ -1365,10 +1593,11 @@
       <c r="H36" s="8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I36" s="8"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B37" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>23</v>
@@ -1388,11 +1617,12 @@
       <c r="H37" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I37" s="6"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -1402,16 +1632,17 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I38" s="3"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B39" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>34</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E39" s="4">
         <v>1</v>
@@ -1425,17 +1656,18 @@
       <c r="H39" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I39" s="6"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E40" s="3">
         <v>1</v>
@@ -1448,6 +1680,219 @@
       </c>
       <c r="H40" s="8" t="s">
         <v>19</v>
+      </c>
+      <c r="I40" s="8"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E41" s="4">
+        <v>1</v>
+      </c>
+      <c r="F41" s="4">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="G41" s="4">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E42" s="3">
+        <v>1</v>
+      </c>
+      <c r="F42" s="3">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="G42" s="3">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E43" s="4">
+        <v>2</v>
+      </c>
+      <c r="F43" s="4">
+        <v>19</v>
+      </c>
+      <c r="G43" s="4">
+        <v>19</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E44" s="3">
+        <v>2</v>
+      </c>
+      <c r="F44" s="3">
+        <v>9</v>
+      </c>
+      <c r="G44" s="3">
+        <v>18</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E45" s="4">
+        <v>1</v>
+      </c>
+      <c r="F45" s="4">
+        <v>15</v>
+      </c>
+      <c r="G45" s="4">
+        <v>15</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1</v>
+      </c>
+      <c r="F46" s="3">
+        <v>15</v>
+      </c>
+      <c r="G46" s="3">
+        <v>15</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E47" s="4">
+        <v>1</v>
+      </c>
+      <c r="F47" s="4">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="G47" s="4">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1</v>
+      </c>
+      <c r="F48" s="3">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="G48" s="3">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -1475,21 +1920,459 @@
     <hyperlink ref="H37" r:id="rId21" location="tab=specs"/>
     <hyperlink ref="H39" r:id="rId22"/>
     <hyperlink ref="H40" r:id="rId23"/>
+    <hyperlink ref="H17" r:id="rId24"/>
+    <hyperlink ref="H18" r:id="rId25"/>
+    <hyperlink ref="H41" r:id="rId26"/>
+    <hyperlink ref="H42" r:id="rId27"/>
+    <hyperlink ref="H43" r:id="rId28"/>
+    <hyperlink ref="H44" r:id="rId29"/>
+    <hyperlink ref="H45" r:id="rId30"/>
+    <hyperlink ref="H46" r:id="rId31"/>
+    <hyperlink ref="H47" r:id="rId32"/>
+    <hyperlink ref="H48" r:id="rId33"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId24"/>
+  <pageSetup scale="65" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId34"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A7:R22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="7.42578125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="54.5703125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" style="11" customWidth="1"/>
+    <col min="5" max="8" width="9.140625" style="11" customWidth="1"/>
+    <col min="9" max="10" width="9.140625" style="11"/>
+    <col min="11" max="11" width="21" style="11" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" style="11" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E8" s="13">
+        <v>1</v>
+      </c>
+      <c r="F8" s="13">
+        <v>134.94999999999999</v>
+      </c>
+      <c r="G8" s="13">
+        <f t="shared" ref="G8:G16" si="0">E8*F8</f>
+        <v>134.94999999999999</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="11">
+        <v>2</v>
+      </c>
+      <c r="F9" s="11">
+        <v>13.36</v>
+      </c>
+      <c r="G9" s="11">
+        <f t="shared" si="0"/>
+        <v>26.72</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="13">
+        <v>1</v>
+      </c>
+      <c r="F10" s="13">
+        <v>87.34</v>
+      </c>
+      <c r="G10" s="13">
+        <f t="shared" si="0"/>
+        <v>87.34</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="L10" s="11">
+        <f>SUM(G8:G48)</f>
+        <v>2306.12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" s="11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="11">
+        <v>29.43</v>
+      </c>
+      <c r="G11" s="11">
+        <f t="shared" si="0"/>
+        <v>29.43</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12" s="13">
+        <v>1</v>
+      </c>
+      <c r="F12" s="13">
+        <v>36.880000000000003</v>
+      </c>
+      <c r="G12" s="13">
+        <f t="shared" si="0"/>
+        <v>36.880000000000003</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" s="11">
+        <v>3</v>
+      </c>
+      <c r="F13" s="11">
+        <v>4.78</v>
+      </c>
+      <c r="G13" s="11">
+        <f t="shared" si="0"/>
+        <v>14.34</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="E14" s="13">
+        <v>1</v>
+      </c>
+      <c r="F14" s="13">
+        <v>21.99</v>
+      </c>
+      <c r="G14" s="13">
+        <f t="shared" si="0"/>
+        <v>21.99</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N14" s="11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="E15" s="11">
+        <v>4</v>
+      </c>
+      <c r="F15" s="11">
+        <v>19.62</v>
+      </c>
+      <c r="G15" s="11">
+        <f t="shared" si="0"/>
+        <v>78.48</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="E16" s="11">
+        <v>4</v>
+      </c>
+      <c r="F16" s="11">
+        <v>57.6</v>
+      </c>
+      <c r="G16" s="11">
+        <f t="shared" si="0"/>
+        <v>230.4</v>
+      </c>
+      <c r="N16" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="O16" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B17" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="E17" s="11">
+        <v>13</v>
+      </c>
+      <c r="F17" s="11">
+        <v>71.55</v>
+      </c>
+      <c r="G17" s="11">
+        <f>E17*F17</f>
+        <v>930.15</v>
+      </c>
+      <c r="N17" s="11">
+        <v>67</v>
+      </c>
+      <c r="O17" s="11">
+        <v>4</v>
+      </c>
+      <c r="P17" s="11">
+        <f>N17*O17</f>
+        <v>268</v>
+      </c>
+      <c r="R17" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B18" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="E18" s="11">
+        <v>16</v>
+      </c>
+      <c r="F18" s="11">
+        <v>12.62</v>
+      </c>
+      <c r="G18" s="11">
+        <f>E18*F18</f>
+        <v>201.92</v>
+      </c>
+      <c r="N18" s="11">
+        <v>40</v>
+      </c>
+      <c r="O18" s="11">
+        <v>12</v>
+      </c>
+      <c r="P18" s="11">
+        <f t="shared" ref="P18:P19" si="1">N18*O18</f>
+        <v>480</v>
+      </c>
+      <c r="R18" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B19" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E19" s="11">
+        <v>20</v>
+      </c>
+      <c r="F19" s="11">
+        <v>14.49</v>
+      </c>
+      <c r="G19" s="11">
+        <f>E19*F19</f>
+        <v>289.8</v>
+      </c>
+      <c r="N19" s="11">
+        <v>48.5</v>
+      </c>
+      <c r="O19" s="11">
+        <v>6</v>
+      </c>
+      <c r="P19" s="11">
+        <f t="shared" si="1"/>
+        <v>291</v>
+      </c>
+      <c r="R19" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B20" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="E20" s="11">
+        <v>14</v>
+      </c>
+      <c r="F20" s="11">
+        <v>15.98</v>
+      </c>
+      <c r="G20" s="11">
+        <f>E20*F20</f>
+        <v>223.72</v>
+      </c>
+      <c r="P20" s="11">
+        <f>SUM(P17:P19)</f>
+        <v>1039</v>
+      </c>
+      <c r="R20" s="11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="P21" s="11">
+        <f>P20/97</f>
+        <v>10.711340206185566</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="O22" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H8" r:id="rId1" location="=tlamrg"/>
+    <hyperlink ref="H9" r:id="rId2" location="ball-valves/=tlata2"/>
+    <hyperlink ref="H10" r:id="rId3" location="flow-control-needle-valves/=tlb4p0"/>
+    <hyperlink ref="H11" r:id="rId4" location="standard-relief-valves/=tlbdca"/>
+    <hyperlink ref="H12" r:id="rId5" location="standard-water-filtration-devices/=tlbka9"/>
+    <hyperlink ref="H13" r:id="rId6" location="standard-water-filtration-devices/=tlbkwc"/>
+    <hyperlink ref="H14" r:id="rId7" location="atmospheric-pressure-gauges/=tlbpvl"/>
+    <hyperlink ref="H15" r:id="rId8" location="36895k162/=tldqwo"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="49" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId9"/>
 </worksheet>
 </file>
 

--- a/ABS Valve Test BOM.xlsx
+++ b/ABS Valve Test BOM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="132">
   <si>
     <t>120VAC to 24VDC Transformer</t>
   </si>
@@ -397,6 +397,21 @@
   </si>
   <si>
     <t>300-S18N30F10</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>Received?</t>
+  </si>
+  <si>
+    <t>Received</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>n-partial (3/20)</t>
   </si>
 </sst>
 </file>
@@ -847,7 +862,7 @@
   <dimension ref="A7:L48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="J50" sqref="J50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -856,7 +871,8 @@
     <col min="2" max="2" width="47.140625" style="4" customWidth="1"/>
     <col min="3" max="3" width="20.140625" style="4" customWidth="1"/>
     <col min="4" max="4" width="23.140625" style="4" customWidth="1"/>
-    <col min="5" max="10" width="9.140625" style="4"/>
+    <col min="5" max="9" width="9.140625" style="4"/>
+    <col min="10" max="10" width="20.42578125" style="4" customWidth="1"/>
     <col min="11" max="11" width="23.140625" style="4" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="4"/>
   </cols>
@@ -889,6 +905,9 @@
       <c r="I7" s="1" t="s">
         <v>124</v>
       </c>
+      <c r="J7" s="2" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
@@ -913,7 +932,12 @@
       <c r="H8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="8"/>
+      <c r="I8" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
@@ -938,7 +962,12 @@
       <c r="H9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="6"/>
+      <c r="I9" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
@@ -963,7 +992,12 @@
       <c r="H10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="3"/>
+      <c r="I10" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
@@ -988,7 +1022,12 @@
       <c r="H11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="6"/>
+      <c r="I11" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
@@ -1013,7 +1052,12 @@
       <c r="H12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I12" s="3"/>
+      <c r="I12" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
@@ -1038,7 +1082,12 @@
       <c r="H13" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I13" s="6"/>
+      <c r="I13" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
@@ -1063,7 +1112,12 @@
       <c r="H14" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I14" s="8"/>
+      <c r="I14" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
@@ -1080,6 +1134,12 @@
       </c>
       <c r="H15" s="4" t="s">
         <v>6</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>130</v>
       </c>
       <c r="K15" s="10" t="s">
         <v>55</v>
@@ -1112,9 +1172,14 @@
       <c r="H16" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I16" s="8"/>
-    </row>
-    <row r="17" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I16" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="s">
         <v>17</v>
       </c>
@@ -1136,9 +1201,14 @@
       <c r="H17" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I17" s="9"/>
-    </row>
-    <row r="18" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I17" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
         <v>18</v>
@@ -1161,9 +1231,14 @@
       <c r="H18" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I18" s="8"/>
-    </row>
-    <row r="19" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I18" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
         <v>20</v>
       </c>
@@ -1185,9 +1260,14 @@
       <c r="H19" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I19" s="9"/>
-    </row>
-    <row r="20" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I19" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
         <v>21</v>
@@ -1210,9 +1290,14 @@
       <c r="H20" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I20" s="8"/>
-    </row>
-    <row r="21" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I20" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
         <v>22</v>
       </c>
@@ -1235,9 +1320,14 @@
       <c r="H21" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I21" s="9"/>
-    </row>
-    <row r="22" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I21" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
         <v>26</v>
@@ -1261,9 +1351,14 @@
       <c r="H22" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I22" s="8"/>
-    </row>
-    <row r="23" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I22" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="s">
         <v>29</v>
       </c>
@@ -1286,9 +1381,14 @@
       <c r="H23" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I23" s="9"/>
-    </row>
-    <row r="24" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I23" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3" t="s">
         <v>36</v>
@@ -1312,9 +1412,14 @@
       <c r="H24" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I24" s="8"/>
-    </row>
-    <row r="25" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I24" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="s">
         <v>38</v>
       </c>
@@ -1337,9 +1442,14 @@
       <c r="H25" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I25" s="9"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I25" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
         <v>40</v>
@@ -1363,9 +1473,14 @@
       <c r="H26" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I26" s="8"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I26" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
         <v>44</v>
       </c>
@@ -1388,9 +1503,14 @@
       <c r="H27" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I27" s="6"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I27" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
         <v>47</v>
@@ -1414,9 +1534,14 @@
       <c r="H28" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I28" s="8"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I28" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
         <v>49</v>
       </c>
@@ -1439,9 +1564,14 @@
       <c r="H29" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I29" s="6"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I29" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3" t="s">
         <v>51</v>
@@ -1465,9 +1595,14 @@
       <c r="H30" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I30" s="8"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I30" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="s">
         <v>56</v>
       </c>
@@ -1489,8 +1624,14 @@
       <c r="H31" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I31" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
         <v>58</v>
@@ -1513,9 +1654,22 @@
       <c r="H32" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I32" s="3"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I32" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I33" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3" t="s">
         <v>62</v>
@@ -1540,10 +1694,13 @@
         <v>19</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B35" s="4" t="s">
         <v>64</v>
       </c>
@@ -1569,8 +1726,11 @@
       <c r="I35" s="6" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J35" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
         <v>66</v>
@@ -1593,9 +1753,14 @@
       <c r="H36" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I36" s="8"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I36" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B37" s="4" t="s">
         <v>68</v>
       </c>
@@ -1617,9 +1782,14 @@
       <c r="H37" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I37" s="6"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I37" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
         <v>69</v>
@@ -1632,9 +1802,14 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I38" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B39" s="4" t="s">
         <v>70</v>
       </c>
@@ -1656,9 +1831,14 @@
       <c r="H39" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I39" s="6"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I39" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>72</v>
@@ -1681,9 +1861,14 @@
       <c r="H40" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I40" s="8"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I40" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B41" s="4" t="s">
         <v>76</v>
       </c>
@@ -1708,8 +1893,11 @@
       <c r="I41" s="6" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J41" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>78</v>
@@ -1735,8 +1923,11 @@
       <c r="I42" s="8" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J42" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B43" s="4" t="s">
         <v>80</v>
       </c>
@@ -1761,8 +1952,11 @@
       <c r="I43" s="6" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J43" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="3" t="s">
         <v>82</v>
@@ -1788,8 +1982,11 @@
       <c r="I44" s="8" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J44" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B45" s="4" t="s">
         <v>84</v>
       </c>
@@ -1814,8 +2011,11 @@
       <c r="I45" s="6" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J45" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="3" t="s">
         <v>86</v>
@@ -1841,8 +2041,11 @@
       <c r="I46" s="8" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J46" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B47" s="4" t="s">
         <v>88</v>
       </c>
@@ -1867,8 +2070,11 @@
       <c r="I47" s="6" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J47" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="3" t="s">
         <v>89</v>
@@ -1893,6 +2099,9 @@
       </c>
       <c r="I48" s="8" t="s">
         <v>125</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1932,7 +2141,7 @@
     <hyperlink ref="H48" r:id="rId33"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="65" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId34"/>
+  <pageSetup scale="61" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId34"/>
 </worksheet>
 </file>
 
@@ -1944,7 +2153,7 @@
   <dimension ref="A7:R22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1954,7 +2163,8 @@
     <col min="3" max="3" width="17.85546875" style="11" customWidth="1"/>
     <col min="4" max="4" width="20.5703125" style="11" customWidth="1"/>
     <col min="5" max="8" width="9.140625" style="11" customWidth="1"/>
-    <col min="9" max="10" width="9.140625" style="11"/>
+    <col min="9" max="9" width="9.140625" style="11"/>
+    <col min="10" max="10" width="18.5703125" style="11" customWidth="1"/>
     <col min="11" max="11" width="21" style="11" customWidth="1"/>
     <col min="12" max="12" width="16.5703125" style="11" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="11"/>
@@ -1985,6 +2195,12 @@
       <c r="H7" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="I7" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
@@ -2010,6 +2226,12 @@
       <c r="H8" s="14" t="s">
         <v>19</v>
       </c>
+      <c r="I8" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
@@ -2033,6 +2255,12 @@
       </c>
       <c r="H9" s="12" t="s">
         <v>19</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -2059,6 +2287,12 @@
       <c r="H10" s="14" t="s">
         <v>19</v>
       </c>
+      <c r="I10" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>127</v>
+      </c>
       <c r="K10" s="11" t="s">
         <v>99</v>
       </c>
@@ -2089,6 +2323,12 @@
       </c>
       <c r="H11" s="12" t="s">
         <v>19</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -2115,6 +2355,12 @@
       <c r="H12" s="14" t="s">
         <v>19</v>
       </c>
+      <c r="I12" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B13" s="11" t="s">
@@ -2138,6 +2384,12 @@
       </c>
       <c r="H13" s="12" t="s">
         <v>19</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -2164,6 +2416,12 @@
       <c r="H14" s="14" t="s">
         <v>19</v>
       </c>
+      <c r="I14" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>127</v>
+      </c>
       <c r="N14" s="11" t="s">
         <v>112</v>
       </c>
@@ -2191,6 +2449,12 @@
       <c r="H15" s="12" t="s">
         <v>19</v>
       </c>
+      <c r="I15" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B16" s="11" t="s">
@@ -2212,6 +2476,12 @@
         <f t="shared" si="0"/>
         <v>230.4</v>
       </c>
+      <c r="I16" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>127</v>
+      </c>
       <c r="N16" s="11" t="s">
         <v>113</v>
       </c>
@@ -2239,6 +2509,12 @@
         <f>E17*F17</f>
         <v>930.15</v>
       </c>
+      <c r="I17" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>130</v>
+      </c>
       <c r="N17" s="11">
         <v>67</v>
       </c>
@@ -2273,6 +2549,12 @@
         <f>E18*F18</f>
         <v>201.92</v>
       </c>
+      <c r="I18" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>127</v>
+      </c>
       <c r="N18" s="11">
         <v>40</v>
       </c>
@@ -2307,6 +2589,12 @@
         <f>E19*F19</f>
         <v>289.8</v>
       </c>
+      <c r="I19" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>131</v>
+      </c>
       <c r="N19" s="11">
         <v>48.5</v>
       </c>
@@ -2340,6 +2628,12 @@
       <c r="G20" s="11">
         <f>E20*F20</f>
         <v>223.72</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>127</v>
       </c>
       <c r="P20" s="11">
         <f>SUM(P17:P19)</f>
